--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_38.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_38.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9482261436211809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7481452305599054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7795266999686238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999488491985956</v>
+        <v>0.9836465104840787</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.181493801399958</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173904853496756</v>
+        <v>1.684154002930492</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.7886202104357869</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002386253815431713</v>
+        <v>0.08543351778844793</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.110818240276427</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4260208931495708</v>
       </c>
       <c r="L2" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9294994296118207</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4327302963520224</v>
       </c>
       <c r="N2" t="n">
-        <v>144.6644837721437</v>
+        <v>37.41306755585354</v>
       </c>
       <c r="O2" t="n">
-        <v>285.9996563153601</v>
+        <v>74.37765114407937</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9489163780387991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7474836299144896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7740968652346213</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999488491985956</v>
+        <v>0.9822659665129876</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1790741773450292</v>
       </c>
       <c r="G3" t="n">
-        <v>1.173904853496756</v>
+        <v>1.688578129492778</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.8080424144394065</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002386253815431713</v>
+        <v>0.09264572334232178</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.179829277425663</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4231715696322582</v>
       </c>
       <c r="L3" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9304393232868754</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4298360988375907</v>
       </c>
       <c r="N3" t="n">
-        <v>144.6644837721437</v>
+        <v>37.43991032081036</v>
       </c>
       <c r="O3" t="n">
-        <v>285.9996563153601</v>
+        <v>74.40449390903618</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9490278996076392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7474286088586479</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7729696558994519</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999488491985956</v>
+        <v>0.9819945038364696</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1786832373053538</v>
       </c>
       <c r="G4" t="n">
-        <v>1.173904853496756</v>
+        <v>1.688946055546541</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.8120743768719551</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002386253815431713</v>
+        <v>0.09406389231357547</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.192031257715584</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4227094005405532</v>
       </c>
       <c r="L4" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9305911824444449</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4293666510446908</v>
       </c>
       <c r="N4" t="n">
-        <v>144.6644837721437</v>
+        <v>37.44428132953609</v>
       </c>
       <c r="O4" t="n">
-        <v>285.9996563153601</v>
+        <v>74.40886491776192</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9490627202233369</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7474149581094423</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7725983555214314</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999488491985956</v>
+        <v>0.9819051417757304</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1785611732685584</v>
       </c>
       <c r="G5" t="n">
-        <v>1.173904853496756</v>
+        <v>1.689037338169335</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.8134024967949012</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002386253815431713</v>
+        <v>0.0945307355031185</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.195946675701603</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4225649929520409</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9306385977509268</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4292199691810141</v>
       </c>
       <c r="N5" t="n">
-        <v>144.6644837721437</v>
+        <v>37.44564805817265</v>
       </c>
       <c r="O5" t="n">
-        <v>285.9996563153601</v>
+        <v>74.41023164639847</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9491579675161714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7473740991324129</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7715054622823062</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999488491985956</v>
+        <v>0.9816391225790696</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.178227282875633</v>
       </c>
       <c r="G6" t="n">
-        <v>1.173904853496756</v>
+        <v>1.689310562336868</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.8173117125416611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002386253815431713</v>
+        <v>0.095920466774103</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.207176998025581</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4221697323063711</v>
       </c>
       <c r="L6" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9307682961922334</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4288184835752907</v>
       </c>
       <c r="N6" t="n">
-        <v>144.6644837721437</v>
+        <v>37.44939134621513</v>
       </c>
       <c r="O6" t="n">
-        <v>285.9996563153601</v>
+        <v>74.41397493444096</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9492612612518798</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7466452390518767</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7698309908817369</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999488491985956</v>
+        <v>0.9810284937167775</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1778651855920671</v>
       </c>
       <c r="G7" t="n">
-        <v>1.173904853496756</v>
+        <v>1.694184453051506</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.8233011996500673</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002386253815431713</v>
+        <v>0.09911049980760242</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.227050401357781</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4217406615351039</v>
       </c>
       <c r="L7" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9309089514919214</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4283826553682895</v>
       </c>
       <c r="N7" t="n">
-        <v>144.6644837721437</v>
+        <v>37.45345879992936</v>
       </c>
       <c r="O7" t="n">
-        <v>285.9996563153601</v>
+        <v>74.41804238815519</v>
       </c>
     </row>
     <row r="8">
@@ -806,144 +806,144 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9493252852571826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7465844008240539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.76885245750956</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999488491985956</v>
+        <v>0.9807756514502837</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1776407487639846</v>
       </c>
       <c r="G8" t="n">
-        <v>1.173904853496756</v>
+        <v>1.694591278561092</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.8268013567837189</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002386253815431713</v>
+        <v>0.1004313924679202</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.236430750614085</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.421474493610212</v>
       </c>
       <c r="L8" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9309961331161636</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4281122955646507</v>
       </c>
       <c r="N8" t="n">
-        <v>144.6644837721437</v>
+        <v>37.45598406700606</v>
       </c>
       <c r="O8" t="n">
-        <v>285.9996563153601</v>
+        <v>74.42056765523188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_7</t>
+          <t>model_1_38_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9496134781854682</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7464832850180469</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7613358243904148</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999488491985956</v>
+        <v>0.9787702816402125</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1766304854042608</v>
       </c>
       <c r="G9" t="n">
-        <v>1.173904853496756</v>
+        <v>1.695267440421455</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.8536879176114713</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002386253815431713</v>
+        <v>0.1109077985691585</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.300640402136047</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4202742978154395</v>
       </c>
       <c r="L9" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9313885660397865</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4268931978858663</v>
       </c>
       <c r="N9" t="n">
-        <v>144.6644837721437</v>
+        <v>37.46739076335381</v>
       </c>
       <c r="O9" t="n">
-        <v>285.9996563153601</v>
+        <v>74.43197435157963</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_8</t>
+          <t>model_1_38_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9496095799460276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7464777221231574</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.761592074136063</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999488491985956</v>
+        <v>0.9788427325018747</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1766441507238704</v>
       </c>
       <c r="G10" t="n">
-        <v>1.173904853496756</v>
+        <v>1.695304639525196</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.8527713271295018</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002386253815431713</v>
+        <v>0.1105293024706605</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.298635097202071</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4202905551209429</v>
       </c>
       <c r="L10" t="n">
-        <v>1.010057053280804</v>
+        <v>0.931383257798846</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4269097112276801</v>
       </c>
       <c r="N10" t="n">
-        <v>144.6644837721437</v>
+        <v>37.46723603591834</v>
       </c>
       <c r="O10" t="n">
-        <v>285.9996563153601</v>
+        <v>74.43181962414415</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9496047332966852</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7463023007793679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7571703551412539</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999488491985956</v>
+        <v>0.9774544520585859</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1766611407044267</v>
       </c>
       <c r="G11" t="n">
-        <v>1.173904853496756</v>
+        <v>1.696477682858858</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.8685875595879358</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002386253815431713</v>
+        <v>0.1177819247218069</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.333088074428626</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.4203107668195364</v>
       </c>
       <c r="L11" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9313766581061245</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.426930241240322</v>
       </c>
       <c r="N11" t="n">
-        <v>144.6644837721437</v>
+        <v>37.46704368124965</v>
       </c>
       <c r="O11" t="n">
-        <v>285.9996563153601</v>
+        <v>74.43162726947547</v>
       </c>
     </row>
   </sheetData>
